--- a/biology/Zoologie/Gyrinus_opacus/Gyrinus_opacus.xlsx
+++ b/biology/Zoologie/Gyrinus_opacus/Gyrinus_opacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gyrinus opacus est une espèce d'insectes coléoptères de la famille des Gyrinidae[1]. Longueur 6 mm, largeur 3,25 mm.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyrinus opacus est une espèce d'insectes coléoptères de la famille des Gyrinidae. Longueur 6 mm, largeur 3,25 mm.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gyrinus opacus est une espèce commune des lacs et étangs de Norvège, Suède, Finlande et Écosse.
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Gyrinus opacus est décrite en 1819 par le naturaliste Carl Reinhold Sahlberg (1779-1860)[2].
-L'année de description est souvent mentionnée comme étant 1819[2],[3], toutefois certains sites donnent 1817[4],[5].
-Gyrinus opacus a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Gyrinus opacus est décrite en 1819 par le naturaliste Carl Reinhold Sahlberg (1779-1860).
+L'année de description est souvent mentionnée comme étant 1819 toutefois certains sites donnent 1817,.
+Gyrinus opacus a pour synonymes :
 Gyrinus blairi Omer-Cooper, 1931
 Gyrinus lecontei Omer-Cooper, 1930</t>
         </is>
